--- a/SS340_HW1/SS340_HW1_SummaryStatistics.xlsx
+++ b/SS340_HW1/SS340_HW1_SummaryStatistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\.spyder-py3\SS340_Abdelwahed\SS340_HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{514248DB-E4E3-4F70-90C0-A7A48717792E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDFC6AE-D59B-4277-89DB-49C540D76BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E35A829B-75CB-408D-BB09-AD104936A7D5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="35">
   <si>
     <t>cigpric</t>
   </si>
@@ -76,12 +76,78 @@
   </si>
   <si>
     <t>NONSMOKING</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>0-80 cigs.</t>
+  </si>
+  <si>
+    <t>17-88 yo.</t>
+  </si>
+  <si>
+    <t>$500-30000</t>
+  </si>
+  <si>
+    <t>6-18 yrs.</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>44-70.13¢</t>
+  </si>
+  <si>
+    <t>44.38-69.9¢</t>
+  </si>
+  <si>
+    <t>17-85 yo.</t>
+  </si>
+  <si>
+    <t>1-80 cigs.</t>
+  </si>
+  <si>
+    <t>11.98 yrs.</t>
+  </si>
+  <si>
+    <t>12.46 yrs.</t>
+  </si>
+  <si>
+    <t>42.66 yo.</t>
+  </si>
+  <si>
+    <t>39.05 yo.</t>
+  </si>
+  <si>
+    <t>41.27 yo.</t>
+  </si>
+  <si>
+    <t>8.71 cigs.</t>
+  </si>
+  <si>
+    <t>22.63 cigs.</t>
+  </si>
+  <si>
+    <t>0 cigs.</t>
+  </si>
+  <si>
+    <t>60.4¢</t>
+  </si>
+  <si>
+    <t>60.13¢</t>
+  </si>
+  <si>
+    <t>60.3¢</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,8 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,20 +494,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605495AB-A224-4D44-BF6C-62CF7919A053}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -462,8 +532,29 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -488,8 +579,32 @@
       <c r="H3">
         <v>12.46</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3">
+        <v>0.88</v>
+      </c>
+      <c r="M3">
+        <v>0.25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1">
+        <v>19301.88</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -514,8 +629,32 @@
       <c r="H4">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>4.76</v>
+      </c>
+      <c r="L4">
+        <v>0.33</v>
+      </c>
+      <c r="M4">
+        <v>0.43</v>
+      </c>
+      <c r="N4">
+        <v>13.75</v>
+      </c>
+      <c r="O4">
+        <v>17.04</v>
+      </c>
+      <c r="P4">
+        <v>9157.76</v>
+      </c>
+      <c r="Q4">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -540,8 +679,32 @@
       <c r="H5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -567,12 +730,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -594,8 +757,29 @@
       <c r="H9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -620,8 +804,32 @@
       <c r="H10">
         <v>11.98</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10">
+        <v>0.88</v>
+      </c>
+      <c r="M10">
+        <v>0.2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1">
+        <v>19186.689999999999</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -646,8 +854,32 @@
       <c r="H11">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L11">
+        <v>0.32</v>
+      </c>
+      <c r="M11">
+        <v>0.4</v>
+      </c>
+      <c r="N11">
+        <v>13.28</v>
+      </c>
+      <c r="O11">
+        <v>15.02</v>
+      </c>
+      <c r="P11">
+        <v>9089.85</v>
+      </c>
+      <c r="Q11">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -672,8 +904,32 @@
       <c r="H12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -699,12 +955,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -726,8 +982,29 @@
       <c r="H16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -752,8 +1029,32 @@
       <c r="H17">
         <v>12.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17">
+        <v>0.88</v>
+      </c>
+      <c r="M17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="1">
+        <v>19373.98</v>
+      </c>
+      <c r="Q17">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -778,8 +1079,32 @@
       <c r="H18">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>4.67</v>
+      </c>
+      <c r="L18">
+        <v>0.33</v>
+      </c>
+      <c r="M18">
+        <v>0.45</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="P18">
+        <v>9208.51</v>
+      </c>
+      <c r="Q18">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -804,8 +1129,32 @@
       <c r="H19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
